--- a/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T08:25:30+00:00</t>
+    <t>2023-08-30T14:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T14:09:22+00:00</t>
+    <t>2023-08-31T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T07:32:14+00:00</t>
+    <t>2023-08-31T13:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/StructureDefinition-eclaire-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T13:15:07+00:00</t>
+    <t>2023-08-31T14:29:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
